--- a/myapp/files/9_MethodComparePercent/Scenario 295.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 295.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5550</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.960147810862991</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.355871886120996</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6075</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.05097260378246</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.355871886120996</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3975</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.687673432104575</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.355871886120996</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>3176</v>
       </c>
       <c r="F5" t="n">
-        <v>2.95279799923763</v>
+        <v>0.549446747261416</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.07692307692308</v>
+        <v>0.711743772241993</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>2655</v>
       </c>
       <c r="F6" t="n">
-        <v>2.46841268513095</v>
+        <v>0.459313952764188</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.07692307692308</v>
+        <v>0.711743772241993</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.03695963573203</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.355871886120996</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>840</v>
+        <v>8246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.780966725239171</v>
+        <v>1.42655474745518</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53846153846154</v>
+        <v>1.06761565836299</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2348</v>
+        <v>10097</v>
       </c>
       <c r="F9" t="n">
-        <v>2.18298794150187</v>
+        <v>1.7467770173484</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.07692307692308</v>
+        <v>2.84697508896797</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>6310</v>
+        <v>18972</v>
       </c>
       <c r="F10" t="n">
-        <v>5.8665476622133</v>
+        <v>3.28214851670138</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>6.15384615384615</v>
+        <v>3.91459074733096</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5909</v>
+        <v>16380</v>
       </c>
       <c r="F11" t="n">
-        <v>5.49372902314079</v>
+        <v>2.83373353908753</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.61538461538462</v>
+        <v>2.84697508896797</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.03695963573203</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.355871886120996</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5994</v>
+        <v>22835</v>
       </c>
       <c r="F13" t="n">
-        <v>5.57275541795666</v>
+        <v>3.95044599298314</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.07692307692308</v>
+        <v>2.49110320284698</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>13978</v>
+        <v>58540</v>
       </c>
       <c r="F14" t="n">
-        <v>12.9956581968966</v>
+        <v>10.127396909535</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,16 +1049,16 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
-        <v>9.23076923076923</v>
+        <v>6.40569395017794</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>13.6986301369863</v>
+        <v>15.0684931506849</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>6129</v>
+        <v>57507</v>
       </c>
       <c r="F15" t="n">
-        <v>5.69826792737009</v>
+        <v>9.94868831699064</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,16 +1087,16 @@
         <v>17.8082191780822</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>7.69230769230769</v>
+        <v>9.25266903914591</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>12.3287671232877</v>
+        <v>10.958904109589</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7499</v>
+        <v>39885</v>
       </c>
       <c r="F16" t="n">
-        <v>6.9719874673435</v>
+        <v>6.90008926779647</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>6.15384615384615</v>
+        <v>6.76156583629893</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8556</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.48018462517905</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.42348754448399</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>5538</v>
+        <v>23076</v>
       </c>
       <c r="F18" t="n">
-        <v>5.14880205282682</v>
+        <v>3.99213889792331</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>3.07692307692308</v>
+        <v>4.98220640569395</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>9439</v>
+        <v>49411</v>
       </c>
       <c r="F19" t="n">
-        <v>8.77564871372921</v>
+        <v>8.5480835103696</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
@@ -1239,10 +1239,10 @@
         <v>20.5479452054795</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>7.69230769230769</v>
+        <v>7.82918149466192</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>17240</v>
+        <v>74378</v>
       </c>
       <c r="F20" t="n">
-        <v>16.028412313242</v>
+        <v>12.8673646624086</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
@@ -1277,10 +1277,10 @@
         <v>28.7671232876712</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J20" t="n">
-        <v>13.8461538461538</v>
+        <v>14.2348754448399</v>
       </c>
       <c r="K20" t="n">
         <v>12</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>3822</v>
+        <v>41527</v>
       </c>
       <c r="F21" t="n">
-        <v>3.55339859983823</v>
+        <v>7.18415462012747</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -1315,10 +1315,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>6.15384615384615</v>
+        <v>9.6085409252669</v>
       </c>
       <c r="K21" t="n">
         <v>6</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1050</v>
+        <v>8254</v>
       </c>
       <c r="F22" t="n">
-        <v>0.976208406548964</v>
+        <v>1.42793874429966</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.53846153846154</v>
+        <v>1.77935943060498</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1134</v>
+        <v>14014</v>
       </c>
       <c r="F23" t="n">
-        <v>1.05430507907288</v>
+        <v>2.42441647233044</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53846153846154</v>
+        <v>3.20284697508897</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1794</v>
+        <v>21794</v>
       </c>
       <c r="F24" t="n">
-        <v>1.6679217917608</v>
+        <v>3.77035340359424</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1429,10 +1429,10 @@
         <v>5.47945205479452</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>3.07692307692308</v>
+        <v>3.91459074733096</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6600</v>
+        <v>34889</v>
       </c>
       <c r="F25" t="n">
-        <v>6.1361671268792</v>
+        <v>6.03578323841422</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>7.69230769230769</v>
+        <v>7.82918149466192</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6104</v>
+        <v>36256</v>
       </c>
       <c r="F26" t="n">
-        <v>5.67502487007131</v>
+        <v>6.27227369921597</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J26" t="n">
-        <v>7.69230769230769</v>
+        <v>6.40569395017794</v>
       </c>
       <c r="K26" t="n">
         <v>6</v>
